--- a/target/test-classes/testdata/excels/MasterTestData.xlsx
+++ b/target/test-classes/testdata/excels/MasterTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="73">
   <si>
     <t>TC- 101</t>
   </si>
@@ -210,12 +210,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>21/01/2025</t>
-  </si>
-  <si>
-    <t>22/01/2025</t>
-  </si>
-  <si>
     <t>23/01/2025</t>
   </si>
   <si>
@@ -232,6 +226,30 @@
   </si>
   <si>
     <t>TC-119</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>Checkouterror</t>
+  </si>
+  <si>
+    <t>Check-Out Date shall be after than Check-In Date</t>
+  </si>
+  <si>
+    <t>08/02/2025</t>
+  </si>
+  <si>
+    <t>TC-105</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>Hotel select title</t>
   </si>
 </sst>
 </file>
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -770,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
@@ -779,7 +797,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
@@ -819,6 +837,12 @@
       <c r="L13" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
@@ -840,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
@@ -849,13 +873,19 @@
         <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L14" t="s">
         <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1120,7 +1150,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
@@ -1197,7 +1227,7 @@
     </row>
     <row r="23" spans="1:25" ht="28.8">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1206,22 +1236,22 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
       <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -1274,7 +1304,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1351,7 +1381,7 @@
     </row>
     <row r="26" spans="1:25" ht="28.8">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1424,6 +1454,100 @@
       </c>
       <c r="Y26" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata/excels/MasterTestData.xlsx
+++ b/target/test-classes/testdata/excels/MasterTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="75">
   <si>
     <t>TC- 101</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Hotel select title</t>
+  </si>
+  <si>
+    <t>TC-118</t>
+  </si>
+  <si>
+    <t>Results found</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="R19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -632,6 +638,8 @@
     <col min="13" max="13" width="32.21875" customWidth="1"/>
     <col min="14" max="14" width="26.109375" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -941,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -994,7 +1002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:27">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="28.8">
+    <row r="20" spans="1:27" ht="28.8">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:27">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1225,7 +1233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="28.8">
+    <row r="23" spans="1:27" ht="28.8">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:27">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="28.8">
+    <row r="26" spans="1:27" ht="28.8">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
+    <row r="28" spans="1:27" ht="15" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1547,6 +1555,169 @@
         <v>6</v>
       </c>
       <c r="O29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="28.8">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" t="s">
+        <v>51</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" t="s">
         <v>32</v>
       </c>
     </row>
